--- a/data/neut_plate_reader_data/HC120043.xlsx
+++ b/data/neut_plate_reader_data/HC120043.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8737CF44-2F28-BF45-A2A9-05F4354480F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="5" r:id="rId1"/>
     <sheet name="K189D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="F159G" sheetId="6" r:id="rId5"/>
+    <sheet name="WT2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +116,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +191,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +207,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +298,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +311,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +373,189 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="70">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -567,12 +757,36 @@
   </si>
   <si>
     <t>3/23/2020 8:07:30 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:34:20 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.9 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:33:24 AM</t>
+  </si>
+  <si>
+    <t>9:32:21 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:31:41 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.6 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:30:46 AM</t>
+  </si>
+  <si>
+    <t>9:29:48 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,10 +814,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,60 +868,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,23 +896,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,7 +964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,9 +997,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,6 +1049,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,14 +1241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1280,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1288,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1115,17 +1312,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1133,12 +1330,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1256,12 +1453,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1540,7 @@
         <v>9541</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1581,7 @@
         <v>13316</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1622,7 @@
         <v>36282</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1466,7 +1663,7 @@
         <v>17197</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1704,7 @@
         <v>16845</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1745,7 @@
         <v>16694</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1589,7 +1786,7 @@
         <v>33860</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1827,7 @@
         <v>9271</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1645,14 +1842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1881,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1716,17 +1913,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1734,12 +1931,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1805,7 +2002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +2013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +2024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +2035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +2046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1857,12 +2054,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +2100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1944,7 +2141,7 @@
         <v>10044</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2182,7 @@
         <v>12847</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2223,7 @@
         <v>39174</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2264,7 @@
         <v>23163</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2305,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2346,7 @@
         <v>23042</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2387,7 @@
         <v>37117</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2231,7 +2428,7 @@
         <v>9481</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2246,14 +2443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2482,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2317,17 +2514,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2335,12 +2532,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2362,7 +2559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2384,7 +2581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2395,7 +2592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2450,7 +2647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2458,12 +2655,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2742,7 @@
         <v>9968</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2783,7 @@
         <v>12867</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2627,7 +2824,7 @@
         <v>33815</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2668,7 +2865,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +2906,7 @@
         <v>15141</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2750,7 +2947,7 @@
         <v>15038</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2791,7 +2988,7 @@
         <v>32744</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2832,7 +3029,7 @@
         <v>9421</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2847,14 +3044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2870,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +3083,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +3099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +3107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2918,17 +3115,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2936,12 +3133,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +3149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +3160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +3171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2985,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +3193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3018,7 +3215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3040,7 +3237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3059,12 +3256,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3105,7 +3302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3343,7 @@
         <v>15427</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3384,7 @@
         <v>18396</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3228,7 +3425,7 @@
         <v>38315</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3269,7 +3466,7 @@
         <v>22234</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3507,7 @@
         <v>21991</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3548,7 @@
         <v>21662</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3589,7 @@
         <v>37943</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3433,12 +3630,1214 @@
         <v>13857</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE3DCE-870C-644C-A8EE-97DD77453571}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5886</v>
+      </c>
+      <c r="C32">
+        <v>5774</v>
+      </c>
+      <c r="D32">
+        <v>5897</v>
+      </c>
+      <c r="E32">
+        <v>5915</v>
+      </c>
+      <c r="F32">
+        <v>6026</v>
+      </c>
+      <c r="G32">
+        <v>6238</v>
+      </c>
+      <c r="H32">
+        <v>6049</v>
+      </c>
+      <c r="I32">
+        <v>6018</v>
+      </c>
+      <c r="J32">
+        <v>5946</v>
+      </c>
+      <c r="K32">
+        <v>6042</v>
+      </c>
+      <c r="L32">
+        <v>5872</v>
+      </c>
+      <c r="M32">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>8195</v>
+      </c>
+      <c r="C33">
+        <v>8075</v>
+      </c>
+      <c r="D33">
+        <v>8134</v>
+      </c>
+      <c r="E33">
+        <v>8131</v>
+      </c>
+      <c r="F33">
+        <v>8201</v>
+      </c>
+      <c r="G33">
+        <v>8276</v>
+      </c>
+      <c r="H33">
+        <v>8218</v>
+      </c>
+      <c r="I33">
+        <v>8253</v>
+      </c>
+      <c r="J33">
+        <v>8238</v>
+      </c>
+      <c r="K33">
+        <v>8201</v>
+      </c>
+      <c r="L33">
+        <v>8177</v>
+      </c>
+      <c r="M33">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34769</v>
+      </c>
+      <c r="C34">
+        <v>35616</v>
+      </c>
+      <c r="D34">
+        <v>35236</v>
+      </c>
+      <c r="E34">
+        <v>35181</v>
+      </c>
+      <c r="F34">
+        <v>34671</v>
+      </c>
+      <c r="G34">
+        <v>35870</v>
+      </c>
+      <c r="H34">
+        <v>36157</v>
+      </c>
+      <c r="I34">
+        <v>35308</v>
+      </c>
+      <c r="J34">
+        <v>34336</v>
+      </c>
+      <c r="K34">
+        <v>35706</v>
+      </c>
+      <c r="L34">
+        <v>34840</v>
+      </c>
+      <c r="M34">
+        <v>34208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37088</v>
+      </c>
+      <c r="C35">
+        <v>36802</v>
+      </c>
+      <c r="D35">
+        <v>36513</v>
+      </c>
+      <c r="E35">
+        <v>36393</v>
+      </c>
+      <c r="F35">
+        <v>36495</v>
+      </c>
+      <c r="G35">
+        <v>37715</v>
+      </c>
+      <c r="H35">
+        <v>35993</v>
+      </c>
+      <c r="I35">
+        <v>36252</v>
+      </c>
+      <c r="J35">
+        <v>35253</v>
+      </c>
+      <c r="K35">
+        <v>29536</v>
+      </c>
+      <c r="L35">
+        <v>19881</v>
+      </c>
+      <c r="M35">
+        <v>12739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>35765</v>
+      </c>
+      <c r="C36">
+        <v>34634</v>
+      </c>
+      <c r="D36">
+        <v>34293</v>
+      </c>
+      <c r="E36">
+        <v>35026</v>
+      </c>
+      <c r="F36">
+        <v>35000</v>
+      </c>
+      <c r="G36">
+        <v>36706</v>
+      </c>
+      <c r="H36">
+        <v>36125</v>
+      </c>
+      <c r="I36">
+        <v>34110</v>
+      </c>
+      <c r="J36">
+        <v>33526</v>
+      </c>
+      <c r="K36">
+        <v>28933</v>
+      </c>
+      <c r="L36">
+        <v>19743</v>
+      </c>
+      <c r="M36">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>33629</v>
+      </c>
+      <c r="C37">
+        <v>33292</v>
+      </c>
+      <c r="D37">
+        <v>32627</v>
+      </c>
+      <c r="E37">
+        <v>34615</v>
+      </c>
+      <c r="F37">
+        <v>34947</v>
+      </c>
+      <c r="G37">
+        <v>35172</v>
+      </c>
+      <c r="H37">
+        <v>34831</v>
+      </c>
+      <c r="I37">
+        <v>32324</v>
+      </c>
+      <c r="J37">
+        <v>32530</v>
+      </c>
+      <c r="K37">
+        <v>28722</v>
+      </c>
+      <c r="L37">
+        <v>21180</v>
+      </c>
+      <c r="M37">
+        <v>11851</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>33969</v>
+      </c>
+      <c r="C38">
+        <v>33205</v>
+      </c>
+      <c r="D38">
+        <v>32442</v>
+      </c>
+      <c r="E38">
+        <v>32999</v>
+      </c>
+      <c r="F38">
+        <v>32930</v>
+      </c>
+      <c r="G38">
+        <v>33735</v>
+      </c>
+      <c r="H38">
+        <v>33445</v>
+      </c>
+      <c r="I38">
+        <v>33153</v>
+      </c>
+      <c r="J38">
+        <v>32011</v>
+      </c>
+      <c r="K38">
+        <v>30179</v>
+      </c>
+      <c r="L38">
+        <v>34623</v>
+      </c>
+      <c r="M38">
+        <v>31201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>5333</v>
+      </c>
+      <c r="C39">
+        <v>5441</v>
+      </c>
+      <c r="D39">
+        <v>5446</v>
+      </c>
+      <c r="E39">
+        <v>5487</v>
+      </c>
+      <c r="F39">
+        <v>5502</v>
+      </c>
+      <c r="G39">
+        <v>5572</v>
+      </c>
+      <c r="H39">
+        <v>5621</v>
+      </c>
+      <c r="I39">
+        <v>5491</v>
+      </c>
+      <c r="J39">
+        <v>5583</v>
+      </c>
+      <c r="K39">
+        <v>5642</v>
+      </c>
+      <c r="L39">
+        <v>5523</v>
+      </c>
+      <c r="M39">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8541A959-0AC0-214E-9EBD-14AAC930BB16}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>16818</v>
+      </c>
+      <c r="C32">
+        <v>16750</v>
+      </c>
+      <c r="D32">
+        <v>16697</v>
+      </c>
+      <c r="E32">
+        <v>16930</v>
+      </c>
+      <c r="F32">
+        <v>16840</v>
+      </c>
+      <c r="G32">
+        <v>17083</v>
+      </c>
+      <c r="H32">
+        <v>17253</v>
+      </c>
+      <c r="I32">
+        <v>17327</v>
+      </c>
+      <c r="J32">
+        <v>17079</v>
+      </c>
+      <c r="K32">
+        <v>17238</v>
+      </c>
+      <c r="L32">
+        <v>16564</v>
+      </c>
+      <c r="M32">
+        <v>17332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>20471</v>
+      </c>
+      <c r="C33">
+        <v>20063</v>
+      </c>
+      <c r="D33">
+        <v>19956</v>
+      </c>
+      <c r="E33">
+        <v>20420</v>
+      </c>
+      <c r="F33">
+        <v>20462</v>
+      </c>
+      <c r="G33">
+        <v>20324</v>
+      </c>
+      <c r="H33">
+        <v>20179</v>
+      </c>
+      <c r="I33">
+        <v>20912</v>
+      </c>
+      <c r="J33">
+        <v>20528</v>
+      </c>
+      <c r="K33">
+        <v>20086</v>
+      </c>
+      <c r="L33">
+        <v>20275</v>
+      </c>
+      <c r="M33">
+        <v>20361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>38746</v>
+      </c>
+      <c r="C34">
+        <v>37029</v>
+      </c>
+      <c r="D34">
+        <v>37658</v>
+      </c>
+      <c r="E34">
+        <v>37448</v>
+      </c>
+      <c r="F34">
+        <v>38710</v>
+      </c>
+      <c r="G34">
+        <v>38688</v>
+      </c>
+      <c r="H34">
+        <v>38155</v>
+      </c>
+      <c r="I34">
+        <v>38550</v>
+      </c>
+      <c r="J34">
+        <v>37980</v>
+      </c>
+      <c r="K34">
+        <v>38372</v>
+      </c>
+      <c r="L34">
+        <v>37163</v>
+      </c>
+      <c r="M34">
+        <v>37646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38777</v>
+      </c>
+      <c r="C35">
+        <v>36790</v>
+      </c>
+      <c r="D35">
+        <v>36655</v>
+      </c>
+      <c r="E35">
+        <v>37505</v>
+      </c>
+      <c r="F35">
+        <v>36114</v>
+      </c>
+      <c r="G35">
+        <v>35601</v>
+      </c>
+      <c r="H35">
+        <v>32263</v>
+      </c>
+      <c r="I35">
+        <v>26742</v>
+      </c>
+      <c r="J35">
+        <v>21829</v>
+      </c>
+      <c r="K35">
+        <v>20795</v>
+      </c>
+      <c r="L35">
+        <v>21947</v>
+      </c>
+      <c r="M35">
+        <v>24771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38874</v>
+      </c>
+      <c r="C36">
+        <v>37922</v>
+      </c>
+      <c r="D36">
+        <v>36077</v>
+      </c>
+      <c r="E36">
+        <v>36080</v>
+      </c>
+      <c r="F36">
+        <v>35745</v>
+      </c>
+      <c r="G36">
+        <v>35007</v>
+      </c>
+      <c r="H36">
+        <v>31464</v>
+      </c>
+      <c r="I36">
+        <v>26735</v>
+      </c>
+      <c r="J36">
+        <v>21610</v>
+      </c>
+      <c r="K36">
+        <v>20297</v>
+      </c>
+      <c r="L36">
+        <v>21767</v>
+      </c>
+      <c r="M36">
+        <v>24827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>36613</v>
+      </c>
+      <c r="C37">
+        <v>38085</v>
+      </c>
+      <c r="D37">
+        <v>37127</v>
+      </c>
+      <c r="E37">
+        <v>36281</v>
+      </c>
+      <c r="F37">
+        <v>35351</v>
+      </c>
+      <c r="G37">
+        <v>34971</v>
+      </c>
+      <c r="H37">
+        <v>31745</v>
+      </c>
+      <c r="I37">
+        <v>25515</v>
+      </c>
+      <c r="J37">
+        <v>21199</v>
+      </c>
+      <c r="K37">
+        <v>20254</v>
+      </c>
+      <c r="L37">
+        <v>21775</v>
+      </c>
+      <c r="M37">
+        <v>24458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>37351</v>
+      </c>
+      <c r="C38">
+        <v>36678</v>
+      </c>
+      <c r="D38">
+        <v>35309</v>
+      </c>
+      <c r="E38">
+        <v>35349</v>
+      </c>
+      <c r="F38">
+        <v>35844</v>
+      </c>
+      <c r="G38">
+        <v>34851</v>
+      </c>
+      <c r="H38">
+        <v>35322</v>
+      </c>
+      <c r="I38">
+        <v>35684</v>
+      </c>
+      <c r="J38">
+        <v>37221</v>
+      </c>
+      <c r="K38">
+        <v>36020</v>
+      </c>
+      <c r="L38">
+        <v>35880</v>
+      </c>
+      <c r="M38">
+        <v>38275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14774</v>
+      </c>
+      <c r="C39">
+        <v>15049</v>
+      </c>
+      <c r="D39">
+        <v>14925</v>
+      </c>
+      <c r="E39">
+        <v>15051</v>
+      </c>
+      <c r="F39">
+        <v>15047</v>
+      </c>
+      <c r="G39">
+        <v>15309</v>
+      </c>
+      <c r="H39">
+        <v>15429</v>
+      </c>
+      <c r="I39">
+        <v>15306</v>
+      </c>
+      <c r="J39">
+        <v>15903</v>
+      </c>
+      <c r="K39">
+        <v>15390</v>
+      </c>
+      <c r="L39">
+        <v>15430</v>
+      </c>
+      <c r="M39">
+        <v>15464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
